--- a/test-script/data-raw/students-performance-math-normalized.xlsx
+++ b/test-script/data-raw/students-performance-math-normalized.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">school</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">zadostno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v redu</t>
   </si>
   <si>
     <t xml:space="preserve">dobro</t>
@@ -533,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -678,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -852,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -881,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -910,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -939,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1345,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1493,7 @@
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1664,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1809,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -1896,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1925,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -2070,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -2099,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -2128,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -2157,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -2186,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -2273,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -2331,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -2447,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2563,7 +2566,7 @@
         <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -2969,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -3085,7 +3088,7 @@
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -3143,7 +3146,7 @@
         <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -3375,7 +3378,7 @@
         <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -3462,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -3549,7 +3552,7 @@
         <v>8</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -3607,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -3636,7 +3639,7 @@
         <v>8</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -3723,7 +3726,7 @@
         <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -3781,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="I117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -3810,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -3839,7 +3842,7 @@
         <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -3897,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -3926,7 +3929,7 @@
         <v>8</v>
       </c>
       <c r="I122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
@@ -3955,7 +3958,7 @@
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -4158,7 +4161,7 @@
         <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
@@ -4361,7 +4364,7 @@
         <v>8</v>
       </c>
       <c r="I137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
@@ -4477,7 +4480,7 @@
         <v>8</v>
       </c>
       <c r="I141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
@@ -4535,7 +4538,7 @@
         <v>8</v>
       </c>
       <c r="I143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -4709,7 +4712,7 @@
         <v>8</v>
       </c>
       <c r="I149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -4825,7 +4828,7 @@
         <v>8</v>
       </c>
       <c r="I153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -5695,7 +5698,7 @@
         <v>10</v>
       </c>
       <c r="I183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184">
@@ -5753,7 +5756,7 @@
         <v>9</v>
       </c>
       <c r="I185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -5811,7 +5814,7 @@
         <v>10</v>
       </c>
       <c r="I187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
@@ -5869,7 +5872,7 @@
         <v>8</v>
       </c>
       <c r="I189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
@@ -5898,7 +5901,7 @@
         <v>8</v>
       </c>
       <c r="I190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
@@ -6130,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="I198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199">
@@ -6159,7 +6162,7 @@
         <v>8</v>
       </c>
       <c r="I199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -6188,7 +6191,7 @@
         <v>9</v>
       </c>
       <c r="I200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -6275,7 +6278,7 @@
         <v>8</v>
       </c>
       <c r="I203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
@@ -6507,7 +6510,7 @@
         <v>9</v>
       </c>
       <c r="I211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -6536,7 +6539,7 @@
         <v>8</v>
       </c>
       <c r="I212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213">
@@ -6594,7 +6597,7 @@
         <v>9</v>
       </c>
       <c r="I214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215">
@@ -6652,7 +6655,7 @@
         <v>8</v>
       </c>
       <c r="I216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -6710,7 +6713,7 @@
         <v>8</v>
       </c>
       <c r="I218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
@@ -6855,7 +6858,7 @@
         <v>8</v>
       </c>
       <c r="I223" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
@@ -7087,7 +7090,7 @@
         <v>9</v>
       </c>
       <c r="I231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -7290,7 +7293,7 @@
         <v>8</v>
       </c>
       <c r="I238" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239">
@@ -7348,7 +7351,7 @@
         <v>9</v>
       </c>
       <c r="I240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -7406,7 +7409,7 @@
         <v>10</v>
       </c>
       <c r="I242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
@@ -7493,7 +7496,7 @@
         <v>9</v>
       </c>
       <c r="I245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246">
@@ -7609,7 +7612,7 @@
         <v>8</v>
       </c>
       <c r="I249" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
@@ -7696,7 +7699,7 @@
         <v>9</v>
       </c>
       <c r="I252" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -7754,7 +7757,7 @@
         <v>8</v>
       </c>
       <c r="I254" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
@@ -7928,7 +7931,7 @@
         <v>8</v>
       </c>
       <c r="I260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261">
@@ -8131,7 +8134,7 @@
         <v>8</v>
       </c>
       <c r="I267" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
@@ -8160,7 +8163,7 @@
         <v>8</v>
       </c>
       <c r="I268" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
@@ -8189,7 +8192,7 @@
         <v>9</v>
       </c>
       <c r="I269" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270">
@@ -8247,7 +8250,7 @@
         <v>8</v>
       </c>
       <c r="I271" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
@@ -8276,7 +8279,7 @@
         <v>8</v>
       </c>
       <c r="I272" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273">
@@ -8334,7 +8337,7 @@
         <v>8</v>
       </c>
       <c r="I274" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
@@ -8450,7 +8453,7 @@
         <v>9</v>
       </c>
       <c r="I278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279">
@@ -8827,7 +8830,7 @@
         <v>9</v>
       </c>
       <c r="I291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292">
@@ -9030,7 +9033,7 @@
         <v>9</v>
       </c>
       <c r="I298" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
@@ -9146,7 +9149,7 @@
         <v>9</v>
       </c>
       <c r="I302" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303">
@@ -9233,7 +9236,7 @@
         <v>8</v>
       </c>
       <c r="I305" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306">
@@ -9320,7 +9323,7 @@
         <v>9</v>
       </c>
       <c r="I308" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309">
@@ -9494,7 +9497,7 @@
         <v>9</v>
       </c>
       <c r="I314" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315">
@@ -9552,7 +9555,7 @@
         <v>10</v>
       </c>
       <c r="I316" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
@@ -9581,7 +9584,7 @@
         <v>8</v>
       </c>
       <c r="I317" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318">
@@ -9610,7 +9613,7 @@
         <v>9</v>
       </c>
       <c r="I318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
@@ -9755,7 +9758,7 @@
         <v>8</v>
       </c>
       <c r="I323" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324">
@@ -9929,7 +9932,7 @@
         <v>10</v>
       </c>
       <c r="I329" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330">
@@ -10074,7 +10077,7 @@
         <v>10</v>
       </c>
       <c r="I334" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335">
@@ -10103,7 +10106,7 @@
         <v>8</v>
       </c>
       <c r="I335" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336">
@@ -10132,7 +10135,7 @@
         <v>8</v>
       </c>
       <c r="I336" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337">
@@ -10161,7 +10164,7 @@
         <v>10</v>
       </c>
       <c r="I337" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338">
@@ -10190,7 +10193,7 @@
         <v>9</v>
       </c>
       <c r="I338" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339">
@@ -10219,7 +10222,7 @@
         <v>10</v>
       </c>
       <c r="I339" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340">
@@ -10248,7 +10251,7 @@
         <v>10</v>
       </c>
       <c r="I340" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341">
@@ -10277,7 +10280,7 @@
         <v>8</v>
       </c>
       <c r="I341" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342">
@@ -10306,7 +10309,7 @@
         <v>8</v>
       </c>
       <c r="I342" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343">
@@ -10335,7 +10338,7 @@
         <v>8</v>
       </c>
       <c r="I343" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344">
@@ -10364,7 +10367,7 @@
         <v>8</v>
       </c>
       <c r="I344" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345">
@@ -10393,7 +10396,7 @@
         <v>9</v>
       </c>
       <c r="I345" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346">
@@ -10422,7 +10425,7 @@
         <v>10</v>
       </c>
       <c r="I346" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
@@ -10451,7 +10454,7 @@
         <v>8</v>
       </c>
       <c r="I347" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348">
@@ -10538,7 +10541,7 @@
         <v>9</v>
       </c>
       <c r="I350" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351">
@@ -10567,7 +10570,7 @@
         <v>10</v>
       </c>
       <c r="I351" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352">
@@ -10625,7 +10628,7 @@
         <v>8</v>
       </c>
       <c r="I353" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354">
@@ -10770,7 +10773,7 @@
         <v>9</v>
       </c>
       <c r="I358" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359">
@@ -10799,7 +10802,7 @@
         <v>9</v>
       </c>
       <c r="I359" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360">
@@ -10857,7 +10860,7 @@
         <v>9</v>
       </c>
       <c r="I361" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362">
@@ -11002,7 +11005,7 @@
         <v>9</v>
       </c>
       <c r="I366" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367">
@@ -11031,7 +11034,7 @@
         <v>9</v>
       </c>
       <c r="I367" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368">
@@ -11234,7 +11237,7 @@
         <v>8</v>
       </c>
       <c r="I374" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375">
@@ -11292,7 +11295,7 @@
         <v>10</v>
       </c>
       <c r="I376" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="377">
@@ -11321,7 +11324,7 @@
         <v>8</v>
       </c>
       <c r="I377" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378">
@@ -11350,7 +11353,7 @@
         <v>8</v>
       </c>
       <c r="I378" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379">
@@ -11379,7 +11382,7 @@
         <v>8</v>
       </c>
       <c r="I379" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380">
@@ -11408,7 +11411,7 @@
         <v>10</v>
       </c>
       <c r="I380" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381">
@@ -11495,7 +11498,7 @@
         <v>8</v>
       </c>
       <c r="I383" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384">
@@ -11640,7 +11643,7 @@
         <v>9</v>
       </c>
       <c r="I388" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389">
@@ -11669,7 +11672,7 @@
         <v>8</v>
       </c>
       <c r="I389" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390">
@@ -11756,7 +11759,7 @@
         <v>8</v>
       </c>
       <c r="I392" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393">
@@ -11814,7 +11817,7 @@
         <v>8</v>
       </c>
       <c r="I394" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395">
@@ -11843,7 +11846,7 @@
         <v>8</v>
       </c>
       <c r="I395" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396">
@@ -11872,7 +11875,7 @@
         <v>8</v>
       </c>
       <c r="I396" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397">
@@ -11930,7 +11933,7 @@
         <v>9</v>
       </c>
       <c r="I398" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="399">
@@ -12017,7 +12020,7 @@
         <v>9</v>
       </c>
       <c r="I401" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402">
@@ -12046,7 +12049,7 @@
         <v>9</v>
       </c>
       <c r="I402" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="403">
@@ -12075,7 +12078,7 @@
         <v>8</v>
       </c>
       <c r="I403" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404">
@@ -12133,7 +12136,7 @@
         <v>8</v>
       </c>
       <c r="I405" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406">
@@ -12162,7 +12165,7 @@
         <v>8</v>
       </c>
       <c r="I406" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407">
@@ -12307,7 +12310,7 @@
         <v>8</v>
       </c>
       <c r="I411" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412">
@@ -12336,7 +12339,7 @@
         <v>9</v>
       </c>
       <c r="I412" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413">
@@ -12365,7 +12368,7 @@
         <v>8</v>
       </c>
       <c r="I413" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414">
@@ -12394,7 +12397,7 @@
         <v>9</v>
       </c>
       <c r="I414" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="415">
@@ -12452,7 +12455,7 @@
         <v>8</v>
       </c>
       <c r="I416" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417">
@@ -12510,7 +12513,7 @@
         <v>10</v>
       </c>
       <c r="I418" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419">
@@ -12539,7 +12542,7 @@
         <v>9</v>
       </c>
       <c r="I419" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="420">
@@ -12568,7 +12571,7 @@
         <v>8</v>
       </c>
       <c r="I420" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421">
@@ -12626,7 +12629,7 @@
         <v>9</v>
       </c>
       <c r="I422" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="423">
@@ -12689,7 +12692,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B425" t="n">
         <v>11</v>
@@ -12718,7 +12721,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B426" t="n">
         <v>0</v>
@@ -12747,7 +12750,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B427" t="n">
         <v>6</v>
@@ -12776,7 +12779,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B428" t="n">
         <v>4</v>
@@ -12805,7 +12808,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B429" t="n">
         <v>0</v>
@@ -12829,12 +12832,12 @@
         <v>9</v>
       </c>
       <c r="I429" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B430" t="n">
         <v>0</v>
@@ -12863,7 +12866,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B431" t="n">
         <v>5</v>
@@ -12892,7 +12895,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B432" t="n">
         <v>0</v>
@@ -12921,7 +12924,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B433" t="n">
         <v>0</v>
@@ -12950,7 +12953,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B434" t="n">
         <v>0</v>
@@ -12979,7 +12982,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B435" t="n">
         <v>0</v>
@@ -13003,12 +13006,12 @@
         <v>8</v>
       </c>
       <c r="I435" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B436" t="n">
         <v>4</v>
@@ -13037,7 +13040,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B437" t="n">
         <v>0</v>
@@ -13066,7 +13069,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B438" t="n">
         <v>4</v>
@@ -13095,7 +13098,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B439" t="n">
         <v>0</v>
@@ -13124,7 +13127,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B440" t="n">
         <v>2</v>
@@ -13153,7 +13156,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B441" t="n">
         <v>0</v>
@@ -13177,12 +13180,12 @@
         <v>9</v>
       </c>
       <c r="I441" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B442" t="n">
         <v>0</v>
@@ -13211,7 +13214,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B443" t="n">
         <v>4</v>
@@ -13240,7 +13243,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B444" t="n">
         <v>0</v>
@@ -13269,7 +13272,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B445" t="n">
         <v>7</v>
@@ -13298,7 +13301,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B446" t="n">
         <v>4</v>
@@ -13327,7 +13330,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B447" t="n">
         <v>8</v>
@@ -13356,7 +13359,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B448" t="n">
         <v>0</v>
@@ -13385,7 +13388,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B449" t="n">
         <v>8</v>
@@ -13414,7 +13417,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B450" t="n">
         <v>6</v>
@@ -13438,12 +13441,12 @@
         <v>9</v>
       </c>
       <c r="I450" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B451" t="n">
         <v>3</v>
@@ -13472,7 +13475,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -13496,12 +13499,12 @@
         <v>9</v>
       </c>
       <c r="I452" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B453" t="n">
         <v>0</v>
@@ -13530,7 +13533,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B454" t="n">
         <v>4</v>
@@ -13559,7 +13562,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B455" t="n">
         <v>0</v>
@@ -13588,7 +13591,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B456" t="n">
         <v>3</v>
@@ -13617,7 +13620,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B457" t="n">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B458" t="n">
         <v>0</v>
@@ -13670,12 +13673,12 @@
         <v>8</v>
       </c>
       <c r="I458" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B459" t="n">
         <v>4</v>
@@ -13704,7 +13707,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B460" t="n">
         <v>0</v>
@@ -13733,7 +13736,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B461" t="n">
         <v>2</v>
@@ -13762,7 +13765,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B462" t="n">
         <v>1</v>
@@ -13791,7 +13794,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B463" t="n">
         <v>0</v>
@@ -13820,7 +13823,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B464" t="n">
         <v>0</v>
@@ -13844,12 +13847,12 @@
         <v>8</v>
       </c>
       <c r="I464" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B465" t="n">
         <v>2</v>
@@ -13878,7 +13881,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B466" t="n">
         <v>6</v>
@@ -13907,7 +13910,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B467" t="n">
         <v>9</v>
@@ -13936,7 +13939,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B468" t="n">
         <v>0</v>
@@ -13965,7 +13968,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B469" t="n">
         <v>1</v>
@@ -13989,12 +13992,12 @@
         <v>8</v>
       </c>
       <c r="I469" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B470" t="n">
         <v>1</v>
@@ -14023,7 +14026,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B471" t="n">
         <v>0</v>
@@ -14052,7 +14055,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B472" t="n">
         <v>4</v>
@@ -14081,7 +14084,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B473" t="n">
         <v>2</v>
@@ -14110,7 +14113,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B474" t="n">
         <v>0</v>
@@ -14134,12 +14137,12 @@
         <v>8</v>
       </c>
       <c r="I474" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B475" t="n">
         <v>4</v>
@@ -14168,7 +14171,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B476" t="n">
         <v>2</v>
@@ -14197,7 +14200,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B477" t="n">
         <v>0</v>
@@ -14226,7 +14229,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B478" t="n">
         <v>2</v>
@@ -14255,7 +14258,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B479" t="n">
         <v>11</v>
@@ -14284,7 +14287,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B480" t="n">
         <v>0</v>
@@ -14313,7 +14316,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B481" t="n">
         <v>4</v>
@@ -14342,7 +14345,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B482" t="n">
         <v>0</v>
@@ -14371,7 +14374,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B483" t="n">
         <v>2</v>
@@ -14400,7 +14403,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B484" t="n">
         <v>0</v>
@@ -14429,7 +14432,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B485" t="n">
         <v>1</v>
@@ -14458,7 +14461,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B486" t="n">
         <v>6</v>
@@ -14487,7 +14490,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B487" t="n">
         <v>0</v>
@@ -14516,7 +14519,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B488" t="n">
         <v>1</v>
@@ -14545,7 +14548,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B489" t="n">
         <v>6</v>
@@ -14574,7 +14577,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B490" t="n">
         <v>6</v>
@@ -14603,7 +14606,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B491" t="n">
         <v>0</v>
@@ -14632,7 +14635,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B492" t="n">
         <v>4</v>
@@ -14661,7 +14664,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B493" t="n">
         <v>12</v>
@@ -14690,7 +14693,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B494" t="n">
         <v>2</v>
@@ -14719,7 +14722,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B495" t="n">
         <v>5</v>
@@ -14748,7 +14751,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B496" t="n">
         <v>0</v>
@@ -14777,7 +14780,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B497" t="n">
         <v>0</v>
@@ -14801,12 +14804,12 @@
         <v>8</v>
       </c>
       <c r="I497" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B498" t="n">
         <v>2</v>
@@ -14830,12 +14833,12 @@
         <v>8</v>
       </c>
       <c r="I498" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B499" t="n">
         <v>0</v>
@@ -14864,7 +14867,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B500" t="n">
         <v>0</v>
@@ -14888,12 +14891,12 @@
         <v>8</v>
       </c>
       <c r="I500" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B501" t="n">
         <v>0</v>
@@ -14917,12 +14920,12 @@
         <v>9</v>
       </c>
       <c r="I501" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B502" t="n">
         <v>12</v>
@@ -14951,7 +14954,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B503" t="n">
         <v>8</v>
@@ -14980,7 +14983,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B504" t="n">
         <v>2</v>
@@ -15009,7 +15012,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B505" t="n">
         <v>0</v>
@@ -15033,12 +15036,12 @@
         <v>8</v>
       </c>
       <c r="I505" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B506" t="n">
         <v>0</v>
@@ -15067,7 +15070,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B507" t="n">
         <v>0</v>
@@ -15096,7 +15099,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B508" t="n">
         <v>8</v>
@@ -15125,7 +15128,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B509" t="n">
         <v>0</v>
@@ -15154,7 +15157,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B510" t="n">
         <v>0</v>
@@ -15183,7 +15186,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
@@ -15207,12 +15210,12 @@
         <v>10</v>
       </c>
       <c r="I511" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B512" t="n">
         <v>0</v>
@@ -15236,12 +15239,12 @@
         <v>9</v>
       </c>
       <c r="I512" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -15270,7 +15273,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B514" t="n">
         <v>9</v>
@@ -15299,7 +15302,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B515" t="n">
         <v>0</v>
@@ -15328,7 +15331,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B516" t="n">
         <v>2</v>
@@ -15357,7 +15360,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B517" t="n">
         <v>8</v>
@@ -15386,7 +15389,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B518" t="n">
         <v>0</v>
@@ -15410,12 +15413,12 @@
         <v>9</v>
       </c>
       <c r="I518" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B519" t="n">
         <v>0</v>
@@ -15439,12 +15442,12 @@
         <v>8</v>
       </c>
       <c r="I519" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B520" t="n">
         <v>8</v>
@@ -15473,7 +15476,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B521" t="n">
         <v>0</v>
@@ -15502,7 +15505,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B522" t="n">
         <v>6</v>
@@ -15531,7 +15534,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B523" t="n">
         <v>0</v>
@@ -15560,7 +15563,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B524" t="n">
         <v>4</v>
@@ -15589,7 +15592,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B525" t="n">
         <v>2</v>
@@ -15618,7 +15621,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B526" t="n">
         <v>2</v>
@@ -15647,7 +15650,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B527" t="n">
         <v>0</v>
@@ -15671,12 +15674,12 @@
         <v>9</v>
       </c>
       <c r="I527" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -15700,12 +15703,12 @@
         <v>8</v>
       </c>
       <c r="I528" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B529" t="n">
         <v>0</v>
@@ -15734,7 +15737,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B530" t="n">
         <v>5</v>
@@ -15763,7 +15766,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B532" t="n">
         <v>8</v>
@@ -15821,7 +15824,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B533" t="n">
         <v>0</v>
@@ -15850,7 +15853,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B534" t="n">
         <v>2</v>
@@ -15879,7 +15882,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B535" t="n">
         <v>0</v>
@@ -15903,12 +15906,12 @@
         <v>9</v>
       </c>
       <c r="I535" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B536" t="n">
         <v>0</v>
@@ -15937,7 +15940,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B537" t="n">
         <v>11</v>
@@ -15966,7 +15969,7 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B538" t="n">
         <v>8</v>
@@ -15990,12 +15993,12 @@
         <v>8</v>
       </c>
       <c r="I538" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B539" t="n">
         <v>11</v>
@@ -16024,7 +16027,7 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B540" t="n">
         <v>2</v>
@@ -16053,7 +16056,7 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B541" t="n">
         <v>8</v>
@@ -16082,7 +16085,7 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B542" t="n">
         <v>5</v>
@@ -16111,7 +16114,7 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B543" t="n">
         <v>0</v>
@@ -16140,7 +16143,7 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B544" t="n">
         <v>1</v>
@@ -16169,7 +16172,7 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B545" t="n">
         <v>2</v>
@@ -16198,7 +16201,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B546" t="n">
         <v>2</v>
@@ -16227,7 +16230,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B547" t="n">
         <v>8</v>
@@ -16256,7 +16259,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B548" t="n">
         <v>0</v>
@@ -16280,12 +16283,12 @@
         <v>8</v>
       </c>
       <c r="I548" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B549" t="n">
         <v>0</v>
@@ -16314,7 +16317,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B550" t="n">
         <v>2</v>
@@ -16343,7 +16346,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B551" t="n">
         <v>0</v>
@@ -16367,12 +16370,12 @@
         <v>10</v>
       </c>
       <c r="I551" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B552" t="n">
         <v>0</v>
@@ -16401,7 +16404,7 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B553" t="n">
         <v>0</v>
@@ -16425,12 +16428,12 @@
         <v>8</v>
       </c>
       <c r="I553" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B554" t="n">
         <v>2</v>
@@ -16459,7 +16462,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B555" t="n">
         <v>4</v>
@@ -16488,7 +16491,7 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B556" t="n">
         <v>3</v>
@@ -16517,7 +16520,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B557" t="n">
         <v>5</v>
@@ -16541,12 +16544,12 @@
         <v>8</v>
       </c>
       <c r="I557" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B558" t="n">
         <v>4</v>
@@ -16575,7 +16578,7 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B559" t="n">
         <v>2</v>
@@ -16604,7 +16607,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B560" t="n">
         <v>0</v>
@@ -16633,7 +16636,7 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B561" t="n">
         <v>0</v>
@@ -16662,7 +16665,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B562" t="n">
         <v>0</v>
@@ -16691,7 +16694,7 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B563" t="n">
         <v>6</v>
@@ -16720,7 +16723,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B564" t="n">
         <v>0</v>
@@ -16749,7 +16752,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B565" t="n">
         <v>0</v>
@@ -16778,7 +16781,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B566" t="n">
         <v>2</v>
@@ -16807,7 +16810,7 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B567" t="n">
         <v>0</v>
@@ -16836,7 +16839,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B568" t="n">
         <v>2</v>
@@ -16865,7 +16868,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B569" t="n">
         <v>0</v>
@@ -16894,7 +16897,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B570" t="n">
         <v>4</v>
@@ -16923,7 +16926,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B571" t="n">
         <v>9</v>
@@ -16952,7 +16955,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B572" t="n">
         <v>6</v>
@@ -16981,7 +16984,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B573" t="n">
         <v>4</v>
@@ -17010,7 +17013,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B574" t="n">
         <v>8</v>
@@ -17039,7 +17042,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B575" t="n">
         <v>9</v>
@@ -17068,7 +17071,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B576" t="n">
         <v>12</v>
@@ -17097,7 +17100,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B577" t="n">
         <v>8</v>
@@ -17126,7 +17129,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B578" t="n">
         <v>8</v>
@@ -17155,7 +17158,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B579" t="n">
         <v>8</v>
@@ -17184,7 +17187,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B580" t="n">
         <v>4</v>
@@ -17213,7 +17216,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B581" t="n">
         <v>0</v>
@@ -17242,7 +17245,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B582" t="n">
         <v>4</v>
@@ -17271,7 +17274,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B583" t="n">
         <v>2</v>
@@ -17300,7 +17303,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B584" t="n">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B585" t="n">
         <v>0</v>
@@ -17358,7 +17361,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B586" t="n">
         <v>0</v>
@@ -17387,7 +17390,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B587" t="n">
         <v>5</v>
@@ -17416,7 +17419,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B588" t="n">
         <v>0</v>
@@ -17445,7 +17448,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B589" t="n">
         <v>3</v>
@@ -17474,7 +17477,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B590" t="n">
         <v>0</v>
@@ -17503,7 +17506,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B591" t="n">
         <v>0</v>
@@ -17532,7 +17535,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B592" t="n">
         <v>3</v>
@@ -17561,7 +17564,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B593" t="n">
         <v>2</v>
@@ -17590,7 +17593,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B594" t="n">
         <v>0</v>
@@ -17619,7 +17622,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B595" t="n">
         <v>0</v>
@@ -17648,7 +17651,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B596" t="n">
         <v>0</v>
@@ -17672,12 +17675,12 @@
         <v>10</v>
       </c>
       <c r="I596" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B597" t="n">
         <v>3</v>
@@ -17701,12 +17704,12 @@
         <v>10</v>
       </c>
       <c r="I597" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B598" t="n">
         <v>0</v>
@@ -17730,12 +17733,12 @@
         <v>10</v>
       </c>
       <c r="I598" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B599" t="n">
         <v>0</v>
@@ -17764,7 +17767,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B600" t="n">
         <v>8</v>
@@ -17793,7 +17796,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B601" t="n">
         <v>5</v>
@@ -17822,7 +17825,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B602" t="n">
         <v>4</v>
@@ -17851,7 +17854,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B603" t="n">
         <v>4</v>
@@ -17880,7 +17883,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B604" t="n">
         <v>0</v>
@@ -17909,7 +17912,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B605" t="n">
         <v>0</v>
@@ -17938,7 +17941,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B606" t="n">
         <v>2</v>
@@ -17967,7 +17970,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B607" t="n">
         <v>0</v>
@@ -17996,7 +17999,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B608" t="n">
         <v>0</v>
@@ -18020,12 +18023,12 @@
         <v>10</v>
       </c>
       <c r="I608" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B609" t="n">
         <v>5</v>
@@ -18054,7 +18057,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B610" t="n">
         <v>2</v>
@@ -18083,7 +18086,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B611" t="n">
         <v>0</v>
@@ -18112,7 +18115,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B612" t="n">
         <v>0</v>
@@ -18141,7 +18144,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B613" t="n">
         <v>5</v>
@@ -18165,12 +18168,12 @@
         <v>8</v>
       </c>
       <c r="I613" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B614" t="n">
         <v>4</v>
@@ -18199,7 +18202,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B615" t="n">
         <v>0</v>
@@ -18228,7 +18231,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B616" t="n">
         <v>2</v>
@@ -18257,7 +18260,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B617" t="n">
         <v>0</v>
@@ -18281,12 +18284,12 @@
         <v>8</v>
       </c>
       <c r="I617" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B618" t="n">
         <v>2</v>
@@ -18310,12 +18313,12 @@
         <v>8</v>
       </c>
       <c r="I618" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B619" t="n">
         <v>0</v>
@@ -18339,12 +18342,12 @@
         <v>10</v>
       </c>
       <c r="I619" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B620" t="n">
         <v>0</v>
@@ -18368,12 +18371,12 @@
         <v>9</v>
       </c>
       <c r="I620" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B621" t="n">
         <v>6</v>
@@ -18402,7 +18405,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B622" t="n">
         <v>4</v>
@@ -18426,12 +18429,12 @@
         <v>8</v>
       </c>
       <c r="I622" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B623" t="n">
         <v>0</v>
@@ -18460,7 +18463,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B624" t="n">
         <v>0</v>
@@ -18489,7 +18492,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B625" t="n">
         <v>0</v>
@@ -18513,12 +18516,12 @@
         <v>9</v>
       </c>
       <c r="I625" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B626" t="n">
         <v>0</v>
@@ -18547,7 +18550,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B627" t="n">
         <v>0</v>
@@ -18576,7 +18579,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B628" t="n">
         <v>0</v>
@@ -18605,7 +18608,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B629" t="n">
         <v>3</v>
@@ -18634,7 +18637,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B630" t="n">
         <v>8</v>
@@ -18663,7 +18666,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B631" t="n">
         <v>4</v>
@@ -18692,7 +18695,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B632" t="n">
         <v>0</v>
@@ -18716,12 +18719,12 @@
         <v>9</v>
       </c>
       <c r="I632" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B633" t="n">
         <v>4</v>
@@ -18750,7 +18753,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B634" t="n">
         <v>4</v>
@@ -18779,7 +18782,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B635" t="n">
         <v>1</v>
@@ -18803,12 +18806,12 @@
         <v>8</v>
       </c>
       <c r="I635" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B636" t="n">
         <v>1</v>
@@ -18832,12 +18835,12 @@
         <v>9</v>
       </c>
       <c r="I636" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B637" t="n">
         <v>10</v>
@@ -18866,7 +18869,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B638" t="n">
         <v>4</v>
@@ -18890,12 +18893,12 @@
         <v>10</v>
       </c>
       <c r="I638" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B639" t="n">
         <v>0</v>
@@ -18924,7 +18927,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B640" t="n">
         <v>4</v>
@@ -18948,12 +18951,12 @@
         <v>9</v>
       </c>
       <c r="I640" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B641" t="n">
         <v>0</v>
@@ -18982,7 +18985,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B642" t="n">
         <v>0</v>
@@ -19011,7 +19014,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B643" t="n">
         <v>0</v>
@@ -19035,12 +19038,12 @@
         <v>9</v>
       </c>
       <c r="I643" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B644" t="n">
         <v>0</v>
@@ -19069,7 +19072,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B645" t="n">
         <v>4</v>
@@ -19098,7 +19101,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B646" t="n">
         <v>4</v>
@@ -19127,7 +19130,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B647" t="n">
         <v>4</v>
@@ -19151,12 +19154,12 @@
         <v>9</v>
       </c>
       <c r="I647" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B648" t="n">
         <v>6</v>
@@ -19185,7 +19188,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B649" t="n">
         <v>6</v>
@@ -19214,7 +19217,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B650" t="n">
         <v>4</v>
